--- a/biology/Médecine/Score_de_Mallampati/Score_de_Mallampati.xlsx
+++ b/biology/Médecine/Score_de_Mallampati/Score_de_Mallampati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisé essentiellement en anesthésie et parfois en médecine d'urgence, le score de Mallampati ou la classification de Mallampati ou le test de Mallampati, permet de prévoir la difficulté d'une intubation orotrachéale[1], et donc de prévoir une intubation difficile. Il est déterminé par l'observation de l'anatomie de la cavité orale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisé essentiellement en anesthésie et parfois en médecine d'urgence, le score de Mallampati ou la classification de Mallampati ou le test de Mallampati, permet de prévoir la difficulté d'une intubation orotrachéale, et donc de prévoir une intubation difficile. Il est déterminé par l'observation de l'anatomie de la cavité orale.
 Les 4 classes de Mallampati sont :
 classe 1 : toute la luette et les loges amygdaliennes sont visibles
 classe 2 : la luette est partiellement visible
